--- a/Tables/SI_Table_1/SI_Table_1.xlsx
+++ b/Tables/SI_Table_1/SI_Table_1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="210">
   <si>
     <t xml:space="preserve">MeltR H1</t>
   </si>
@@ -82,13 +82,13 @@
     <t xml:space="preserve">MeltWin Tm2</t>
   </si>
   <si>
-    <t xml:space="preserve">-56 (-59 to -54)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-59 (-61 to -56)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-57 (-60 to -54)</t>
+    <t xml:space="preserve">-55 (-57 to -52)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-58 (-61 to -54)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-56 (-61 to -52)</t>
   </si>
   <si>
     <t xml:space="preserve">-54 (4)</t>
@@ -97,13 +97,13 @@
     <t xml:space="preserve">-54 (3)</t>
   </si>
   <si>
-    <t xml:space="preserve">-159 (-167 to -152)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-166 (-173 to -159)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-160 (-171 to -151)</t>
+    <t xml:space="preserve">-155 (-162 to -144)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-165 (-174 to -153)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-158 (-173 to -144)</t>
   </si>
   <si>
     <t xml:space="preserve">-152 (12)</t>
@@ -112,13 +112,13 @@
     <t xml:space="preserve">-151 (9)</t>
   </si>
   <si>
-    <t xml:space="preserve">-6.87 (-6.92 to -6.80)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-6.90 (-6.95 to -6.87)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-6.92 (-7.07 to -6.78)</t>
+    <t xml:space="preserve">-7.07 (-7.13 to -7.01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-7.13 (-7.17 to -7.07)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-7.10 (-7.2 to -6.98)</t>
   </si>
   <si>
     <t xml:space="preserve">-7.11 (0.20)</t>
@@ -127,16 +127,13 @@
     <t xml:space="preserve">-7.12 (0.06)</t>
   </si>
   <si>
-    <t xml:space="preserve">43.7 (43.4 to 44.1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.6 (43.4 to 43.9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.0 (43.2 to 44.6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-60 (-61 to -60)</t>
+    <t xml:space="preserve">45.1 (44.7 to 45.5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.9 (44.5 to 45.4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45.1 (44.1 to 45.7)</t>
   </si>
   <si>
     <t xml:space="preserve">-60 (-61 to -59)</t>
@@ -148,13 +145,10 @@
     <t xml:space="preserve">-60 (1)</t>
   </si>
   <si>
-    <t xml:space="preserve">-173 (-175 to -170)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-171 (-174 to -169)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-171 (-176 to -168)</t>
+    <t xml:space="preserve">-172 (-175 to -170)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-171 (-175 to -168)</t>
   </si>
   <si>
     <t xml:space="preserve">-174 (6)</t>
@@ -163,13 +157,13 @@
     <t xml:space="preserve">-172 (3)</t>
   </si>
   <si>
-    <t xml:space="preserve">-6.69 (-6.71 to -6.66)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-6.69 (-6.7 to -6.67)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-6.70 (-6.75 to -6.66)</t>
+    <t xml:space="preserve">-6.78 (-6.80 to -6.75)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-6.78 (-6.8 to -6.75)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-6.80 (-6.84 to -6.77)</t>
   </si>
   <si>
     <t xml:space="preserve">-6.52 (0.05)</t>
@@ -178,66 +172,69 @@
     <t xml:space="preserve">-6.52 (0.01)</t>
   </si>
   <si>
-    <t xml:space="preserve">42.3 (42.2 to 42.4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.4 (42.3 to 42.5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-69 (-70 to -67)</t>
+    <t xml:space="preserve">42.8 (42.7 to 42.9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.9 (42.8 to 43.0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-68 (-70 to -67)</t>
   </si>
   <si>
     <t xml:space="preserve">-68 (-70 to -66)</t>
   </si>
   <si>
+    <t xml:space="preserve">-67 (-70 to -66)</t>
+  </si>
+  <si>
     <t xml:space="preserve">-67 (3)</t>
   </si>
   <si>
     <t xml:space="preserve">-66 (1)</t>
   </si>
   <si>
-    <t xml:space="preserve">-189 (-193 to -184)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-186 (-193 to -181)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-187 (-193 to -181)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-185 (9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-181 (4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-10.12 (-10.19 to -10.06)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-10.09 (-10.19 to -9.99)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-10.11 (-10.21 to -10.01)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-9.8 (0.09)</t>
+    <t xml:space="preserve">-188 (-191 to -184)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-187 (-193 to -182)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-185 (-192 to -180)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-185 (10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-181 (5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-10.21 (-10.27 to -10.14)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-10.19 (-10.28 to -10.11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-10.16 (-10.27 to -10.08)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-9.80 (0.09)</t>
   </si>
   <si>
     <t xml:space="preserve">-9.77 (0.06)</t>
   </si>
   <si>
-    <t xml:space="preserve">54.1 (53.9 to 54.4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54.2 (53.9 to 54.6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.0</t>
+    <t xml:space="preserve">54.6 (54.4 to 54.8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.7 (54.5 to 54.9)</t>
   </si>
   <si>
     <t xml:space="preserve">-56 (-57 to -55)</t>
   </si>
   <si>
+    <t xml:space="preserve">-56 (-57 to -54)</t>
+  </si>
+  <si>
     <t xml:space="preserve">-57 (-58 to -56)</t>
   </si>
   <si>
@@ -250,10 +247,10 @@
     <t xml:space="preserve">-154 (-157 to -151)</t>
   </si>
   <si>
-    <t xml:space="preserve">-154 (-158 to -151)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-157 (-161 to -154)</t>
+    <t xml:space="preserve">-153 (-156 to -149)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-157 (-160 to -154)</t>
   </si>
   <si>
     <t xml:space="preserve">-154 (4)</t>
@@ -262,13 +259,13 @@
     <t xml:space="preserve">-143 (12)</t>
   </si>
   <si>
-    <t xml:space="preserve">-8.01 (-8.04 to -7.98)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-8.00 (-8.05 to -7.96)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-8.09 (-8.16 to -8.00)</t>
+    <t xml:space="preserve">-8.14 (-8.17 to -8.11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-8.13 (-8.18 to -8.09)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-8.22 (-8.29 to -8.14)</t>
   </si>
   <si>
     <t xml:space="preserve">-7.85 (0.17)</t>
@@ -277,22 +274,22 @@
     <t xml:space="preserve">-7.72 (0.16)</t>
   </si>
   <si>
-    <t xml:space="preserve">50.6 (50.4 to 50.7)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.5 (50.4 to 50.6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.7 (50.3 to 51.0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-52 (-53 to -50)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-47 (-50 to -46)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-52 (-54 to -50)</t>
+    <t xml:space="preserve">51.3 (51.2 to 51.4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.3 (51.1 to 51.4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.5 (51.2 to 51.8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-51 (-53 to -50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-49 (-51 to -46)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-52 (-54 to -51)</t>
   </si>
   <si>
     <t xml:space="preserve">-51 (4)</t>
@@ -301,13 +298,13 @@
     <t xml:space="preserve">-48 (2)</t>
   </si>
   <si>
-    <t xml:space="preserve">-143 (-148 to -137)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-130 (-137 to -125)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-144 (-151 to -139)</t>
+    <t xml:space="preserve">-141 (-147 to -137)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-133 (-142 to -126)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-142 (-149 to -137)</t>
   </si>
   <si>
     <t xml:space="preserve">-141 (11)</t>
@@ -316,13 +313,13 @@
     <t xml:space="preserve">-132 (6)</t>
   </si>
   <si>
-    <t xml:space="preserve">-7.34 (-7.40 to -7.27)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-7.28 (-7.33 to -7.23)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-7.38 (-7.45 to -7.30)</t>
+    <t xml:space="preserve">-7.44 (-7.49 to -7.39)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-7.39 (-7.44 to -7.34)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-7.48 (-7.55 to -7.39)</t>
   </si>
   <si>
     <t xml:space="preserve">-7.21 (0.09)</t>
@@ -331,13 +328,13 @@
     <t xml:space="preserve">-7.18 (0.02)</t>
   </si>
   <si>
-    <t xml:space="preserve">41.9 (41.5 to 42.4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.0 (41.5 to 42.4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">42.2 (41.7 to 42.4)</t>
+    <t xml:space="preserve">42.6 (42.2 to 42.9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.6 (42.0 to 43.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.8 (42.4 to 43.2)</t>
   </si>
   <si>
     <t xml:space="preserve">-64 (-65 to -63)</t>
@@ -352,7 +349,7 @@
     <t xml:space="preserve">-64 (2)</t>
   </si>
   <si>
-    <t xml:space="preserve">-176 (-180 to -173)</t>
+    <t xml:space="preserve">-177 (-179 to -173)</t>
   </si>
   <si>
     <t xml:space="preserve">-177 (-180 to -173)</t>
@@ -367,13 +364,13 @@
     <t xml:space="preserve">-176 (5)</t>
   </si>
   <si>
-    <t xml:space="preserve">-9.4 (-9.43 to -9.38)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-9.40 (-9.44 to -9.36)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-9.39 (-9.45 to -9.36)</t>
+    <t xml:space="preserve">-9.51 (-9.54 to -9.49)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-9.51 (-9.54 to -9.47)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-9.51 (-9.57 to -9.47)</t>
   </si>
   <si>
     <t xml:space="preserve">-9.15 (0.03)</t>
@@ -382,22 +379,22 @@
     <t xml:space="preserve">-9.16 (0.05)</t>
   </si>
   <si>
-    <t xml:space="preserve">51.5 (51.4 to 51.7)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.5 (51.4 to 51.6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51.7 (51.4 to 51.9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-83 (-86 to -81)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-82 (-85 to -79)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-81 (-84 to -79)</t>
+    <t xml:space="preserve">52.1 (51.9 to 52.3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.1 (51.9 to 52.2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.3 (52.0 to 52.5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-84 (-88 to -81)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-84 (-84 to -80)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-81 (-84 to -78)</t>
   </si>
   <si>
     <t xml:space="preserve">-81 (2)</t>
@@ -406,13 +403,13 @@
     <t xml:space="preserve">-81 (7)</t>
   </si>
   <si>
-    <t xml:space="preserve">-224 (-230 to -217)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-219 (-228 to -211)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-217 (-225 to -211)</t>
+    <t xml:space="preserve">-225 (-237 to -215)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-224 (-238 to -214)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-217 (-225 to -209)</t>
   </si>
   <si>
     <t xml:space="preserve">-218 (5)</t>
@@ -421,13 +418,13 @@
     <t xml:space="preserve">-217 (20)</t>
   </si>
   <si>
-    <t xml:space="preserve">-14.05 (-14.19 to -13.89)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-13.91 (-14.16 to -13.73)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-13.82 (-14.03 to -13.66)</t>
+    <t xml:space="preserve">-14.2 (-14.47 to -13.95)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-14.17 (-14.49 to -13.91)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-13.92 (-14.17 to -13.71)</t>
   </si>
   <si>
     <t xml:space="preserve">-13.63 (0.09)</t>
@@ -436,22 +433,19 @@
     <t xml:space="preserve">-13.62 (0.54)</t>
   </si>
   <si>
-    <t xml:space="preserve">67.7 (67.6 to 67.9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.8 (67.6 to 68.0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67.7 (67.1 to 68.2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-59 (-61 to -57)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-64 (-69 to -57)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-60 (-62 to -58)</t>
+    <t xml:space="preserve">68.2 (67.7 to 68.6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.1 (67.5 to 68.6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-58 (-60 to -56)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-62 (-67 to -51)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-60 (-62 to -57)</t>
   </si>
   <si>
     <t xml:space="preserve">-61 (3)</t>
@@ -460,13 +454,13 @@
     <t xml:space="preserve">-62 (4)</t>
   </si>
   <si>
-    <t xml:space="preserve">-156 (-164 to -149)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-172 (-188 to -152)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-161 (-166 to -154)</t>
+    <t xml:space="preserve">-154 (-160 to -148)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-165 (-182 to -132)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-159 (-164 to -151)</t>
   </si>
   <si>
     <t xml:space="preserve">-165 (10)</t>
@@ -475,34 +469,37 @@
     <t xml:space="preserve">-167 (11)</t>
   </si>
   <si>
-    <t xml:space="preserve">-10.39 (-10.53 to -10.25)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-10.65 (-10.95 to -10.30)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-10.47 (-10.62 to -10.32)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-10.38 (0.163)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-10.4 (0.21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.8 (58.6 to 59.3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.4 (58.1 to 59.6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">58.7 (58.4 to 58.9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-75 (-76 to -73)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-75 (-77 to -73)</t>
+    <t xml:space="preserve">-10.55 (-10.74 to -10.39)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-10.73 (-11.03 to -10.38)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-10.59 (-10.73 to -10.42)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-10.38 (0.16)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-10.40 (0.21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.9 (59.4 to 61.2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.7 (58.9 to 62.0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.5 (59.2 to 59.8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-75 (-78 to -74)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-75 (-78 to -73)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-75 (-77 to -74)</t>
   </si>
   <si>
     <t xml:space="preserve">-74 (2)</t>
@@ -511,13 +508,13 @@
     <t xml:space="preserve">-75 (6)</t>
   </si>
   <si>
-    <t xml:space="preserve">-198 (-201 to -194)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-198 (-204 to -191)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-200 (-205 to -193)</t>
+    <t xml:space="preserve">-199 (-207 to -195)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-199 (-207 to -192)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-199 (-204 to -194)</t>
   </si>
   <si>
     <t xml:space="preserve">-197 (7)</t>
@@ -526,13 +523,13 @@
     <t xml:space="preserve">-198 (18)</t>
   </si>
   <si>
-    <t xml:space="preserve">-13.42 (-13.53 to -13.30)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-13.44 (-13.59 to -13.25)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-13.55 (-13.72 to -13.33)</t>
+    <t xml:space="preserve">-13.60 (-13.85 to -13.47)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-13.61 (-13.87 to -13.39)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-13.68 (-13.84 to -13.5)</t>
   </si>
   <si>
     <t xml:space="preserve">-13.19 (0.28)</t>
@@ -541,22 +538,22 @@
     <t xml:space="preserve">-13.21 (0.51)</t>
   </si>
   <si>
-    <t xml:space="preserve">68.5 (68.3 to 68.7)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.5 (68.4 to 68.7)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">68.8 (68.5 to 69.2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-74 (-74 to -73)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-63 (-65 to -62)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-74 (-79 to -72)</t>
+    <t xml:space="preserve">69.1 (68.9 to 69.3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.1 (68.9 to 69.4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.4 (69.1 to 69.8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-73 (-74 to -72)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-65 (-66 to -63)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-73 (-77 to -71)</t>
   </si>
   <si>
     <t xml:space="preserve">-74 (4)</t>
@@ -565,13 +562,13 @@
     <t xml:space="preserve">-66 (2)</t>
   </si>
   <si>
-    <t xml:space="preserve">-220 (-223 to -217)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-186 (-191 to -182)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-222 (-237 to -214)</t>
+    <t xml:space="preserve">-218 (-222 to -215)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-190 (-197 to -186)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-217 (-232 to -212)</t>
   </si>
   <si>
     <t xml:space="preserve">-222 (14)</t>
@@ -580,13 +577,13 @@
     <t xml:space="preserve">-195 (8)</t>
   </si>
   <si>
-    <t xml:space="preserve">-5.28 (-5.30 to -5.24)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-5.37 (-5.40 to -5.33)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-5.31 (-5.34 to -5.26)</t>
+    <t xml:space="preserve">-5.37 (-5.41 to -5.34)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5.46 (-5.49 to -5.42)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5.40 (-5.44 to -5.35)</t>
   </si>
   <si>
     <t xml:space="preserve">-5.41 (0.06)</t>
@@ -595,19 +592,22 @@
     <t xml:space="preserve">-5.48 (0.04)</t>
   </si>
   <si>
-    <t xml:space="preserve">35.3 (35.2 to 35.4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5 (35.3 to 35.6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35.5 (35.2 to 35.6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-78 (-79 to -77)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-75 (-77 to -74)</t>
+    <t xml:space="preserve">35.7 (35.6 to 35.9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.9 (35.8 to 36.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.8 (35.6 to 36.0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-77 (-79 to -76)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-76 (-78 to -74)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-81 (-85 to -78)</t>
   </si>
   <si>
     <t xml:space="preserve">-79 (4)</t>
@@ -616,13 +616,13 @@
     <t xml:space="preserve">-78 (2)</t>
   </si>
   <si>
-    <t xml:space="preserve">-223 (-227 to -220)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-216 (-221 to -211)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-234 (-244 to -228)</t>
+    <t xml:space="preserve">-222 (-226 to -217)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-217 (-222 to -212)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-232 (-245 to -225)</t>
   </si>
   <si>
     <t xml:space="preserve">-230 (12)</t>
@@ -631,13 +631,13 @@
     <t xml:space="preserve">-226 (5)</t>
   </si>
   <si>
-    <t xml:space="preserve">-8.52 (-8.56 to -8.46)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-8.42 (-8.47 to -8.36)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-8.64 (-8.75 to -8.56)</t>
+    <t xml:space="preserve">-8.62 (-8.68 to -8.54)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-8.54 (-8.59 to -8.48)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-8.73 (-8.86 to -8.64)</t>
   </si>
   <si>
     <t xml:space="preserve">-8.15 (0.12)</t>
@@ -646,25 +646,18 @@
     <t xml:space="preserve">-8.09 (0.05)</t>
   </si>
   <si>
-    <t xml:space="preserve">48.8 (48.6 to 48.9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.7 (48.6 to 48.8)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.7 (48.7 to 48.9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47.0</t>
+    <t xml:space="preserve">49.3 (49.1 to 49.4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49.2 (49.1 to 49.3)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -730,12 +723,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -758,20 +747,24 @@
   </sheetPr>
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T11" activeCellId="0" sqref="T11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O17" activeCellId="0" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="13.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="0" width="16.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="14.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="20.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="20.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="20.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="12.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="16.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="16.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="19" style="0" width="12.13"/>
   </cols>
   <sheetData>
@@ -838,684 +831,684 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="1" t="n">
+      <c r="S2" s="0" t="n">
         <v>45.4</v>
       </c>
-      <c r="T2" s="1" t="n">
+      <c r="T2" s="0" t="n">
         <v>45.6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="N3" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="O3" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="P3" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="Q3" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="R3" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="S3" s="1" t="n">
+      <c r="S3" s="0" t="n">
         <v>41.4</v>
       </c>
-      <c r="T3" s="1" t="n">
+      <c r="T3" s="0" t="n">
         <v>41.4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="R4" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="S4" s="1" t="n">
+      <c r="S4" s="0" t="n">
         <v>52.9</v>
       </c>
-      <c r="T4" s="1" t="s">
-        <v>70</v>
+      <c r="T4" s="0" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="R5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="S5" s="1" t="n">
+      <c r="S5" s="0" t="n">
         <v>49.6</v>
       </c>
-      <c r="T5" s="1" t="n">
+      <c r="T5" s="0" t="n">
         <v>49.7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q6" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="R6" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="R6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="S6" s="1" t="n">
+      <c r="S6" s="0" t="n">
         <v>41.2</v>
       </c>
-      <c r="T6" s="1" t="n">
+      <c r="T6" s="0" t="n">
         <v>41.2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="R7" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="R7" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="S7" s="1" t="n">
+      <c r="S7" s="0" t="n">
         <v>50.4</v>
       </c>
-      <c r="T7" s="1" t="n">
+      <c r="T7" s="0" t="n">
         <v>50.4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="O8" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="P8" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="R8" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="Q8" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="S8" s="1" t="n">
+      <c r="S8" s="0" t="n">
         <v>66.7</v>
       </c>
-      <c r="T8" s="1" t="n">
+      <c r="T8" s="0" t="n">
         <v>66.7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="D9" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="F9" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="G9" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="H9" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="I9" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="J9" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="K9" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="L9" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="M9" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="N9" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="O9" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="P9" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="Q9" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="R9" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="Q9" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="S9" s="1" t="n">
+      <c r="S9" s="0" t="n">
         <v>57.7</v>
       </c>
-      <c r="T9" s="1" t="n">
+      <c r="T9" s="0" t="n">
         <v>57.6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="D10" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="J10" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="K10" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="P10" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="Q10" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="R10" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="R10" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="S10" s="1" t="n">
+      <c r="S10" s="0" t="n">
         <v>67.5</v>
       </c>
-      <c r="T10" s="1" t="n">
+      <c r="T10" s="0" t="n">
         <v>67.5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="K11" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="O11" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="P11" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="Q11" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="R11" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="R11" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="S11" s="1" t="n">
+      <c r="S11" s="0" t="n">
         <v>35.9</v>
       </c>
-      <c r="T11" s="1" t="n">
+      <c r="T11" s="0" t="n">
         <v>36.1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="N12" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="O12" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="P12" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="Q12" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="R12" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="T12" s="1" t="n">
+      <c r="R12" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="T12" s="0" t="n">
         <v>46.9</v>
       </c>
     </row>

--- a/Tables/SI_Table_1/SI_Table_1.xlsx
+++ b/Tables/SI_Table_1/SI_Table_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpsie\Documents\meltR.a.paper\Tables\SI_Table_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7E0245-DAEC-4D37-A70C-E1A33A11171D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7811FC-3B42-4FBC-B85A-BAFB68802FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="156" yWindow="0" windowWidth="22884" windowHeight="12360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12" yWindow="0" windowWidth="22884" windowHeight="12360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SI_Table_1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="427">
   <si>
     <t>Helix</t>
   </si>
@@ -1182,6 +1182,141 @@
   </si>
   <si>
     <t>53.0</t>
+  </si>
+  <si>
+    <t>Monomolecular self-structured (Pentaloops)</t>
+  </si>
+  <si>
+    <t>CGAGGUAAGCUCG</t>
+  </si>
+  <si>
+    <t>-2.14 (-2.38 to -1.92)</t>
+  </si>
+  <si>
+    <t>-2.21 (-2.52 to -2.02)</t>
+  </si>
+  <si>
+    <t>-2.48 (0.13)</t>
+  </si>
+  <si>
+    <t>CGUGUUCGUCACG</t>
+  </si>
+  <si>
+    <t>-3.13 (-3.26 to -3.03)</t>
+  </si>
+  <si>
+    <t>-3.23 (0.11)</t>
+  </si>
+  <si>
+    <t>GACGCUCAACGUC</t>
+  </si>
+  <si>
+    <t>-2.77 (-2.83 to -2.71)</t>
+  </si>
+  <si>
+    <t>-2.66 (-2.8 to -2.47)</t>
+  </si>
+  <si>
+    <t>-1.92 (0.08)</t>
+  </si>
+  <si>
+    <t>GCACUGUUCGUGC</t>
+  </si>
+  <si>
+    <t>-3.75 (-3.86 to -3.59)</t>
+  </si>
+  <si>
+    <t>-3.59 (-3.83 to -3.39)</t>
+  </si>
+  <si>
+    <t>-3.67 (0.05)</t>
+  </si>
+  <si>
+    <t>-34 (-36 to -32)</t>
+  </si>
+  <si>
+    <t>-38 (-39 to -37)</t>
+  </si>
+  <si>
+    <t>-44 (-45 to -42)</t>
+  </si>
+  <si>
+    <t>-44 (-46 to -43)</t>
+  </si>
+  <si>
+    <t>-35 (-38 to -33)</t>
+  </si>
+  <si>
+    <t>-45 (-47 to -42)</t>
+  </si>
+  <si>
+    <t>-38 (-40 to -35)</t>
+  </si>
+  <si>
+    <t>-43 (-45 to -41)</t>
+  </si>
+  <si>
+    <t>-44 (4)</t>
+  </si>
+  <si>
+    <t>-33 (4)</t>
+  </si>
+  <si>
+    <t>-44 (3)</t>
+  </si>
+  <si>
+    <t>-102 (-109 to -96)</t>
+  </si>
+  <si>
+    <t>-133 (-138 to -128)</t>
+  </si>
+  <si>
+    <t>-113 (-116 to -109)</t>
+  </si>
+  <si>
+    <t>-128 (-132 to -123)</t>
+  </si>
+  <si>
+    <t>-107 (-116 to -101)</t>
+  </si>
+  <si>
+    <t>-136 (-140 to -126)</t>
+  </si>
+  <si>
+    <t>-112 (-121 to -105)</t>
+  </si>
+  <si>
+    <t>-125 (-133 to -120)</t>
+  </si>
+  <si>
+    <t>-107 (7)</t>
+  </si>
+  <si>
+    <t>-131 (14)</t>
+  </si>
+  <si>
+    <t>-99 (14)</t>
+  </si>
+  <si>
+    <t>-131 (10)</t>
+  </si>
+  <si>
+    <t>-3.17 (-3.27 to -3.00)</t>
+  </si>
+  <si>
+    <t>57.9 (56.9 to 58.9)</t>
+  </si>
+  <si>
+    <t>60.4 (60.2 to 60.5)</t>
+  </si>
+  <si>
+    <t>61.4 (60.9 to 61.9)</t>
+  </si>
+  <si>
+    <t>66.1 (65.9 to 66.3)</t>
+  </si>
+  <si>
+    <t>60.4 (60.2 to 60.6)</t>
   </si>
 </sst>
 </file>
@@ -1535,10 +1670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U29"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W13" sqref="W13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1551,7 +1686,7 @@
     <col min="11" max="11" width="14.6640625" customWidth="1"/>
     <col min="12" max="14" width="20.88671875" customWidth="1"/>
     <col min="15" max="16" width="12.6640625" customWidth="1"/>
-    <col min="17" max="19" width="19.21875" customWidth="1"/>
+    <col min="17" max="19" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2934,6 +3069,175 @@
       </c>
       <c r="T29">
         <v>65.599999999999994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>383</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="N31" t="s">
+        <v>385</v>
+      </c>
+      <c r="O31" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>422</v>
+      </c>
+      <c r="S31" t="s">
+        <v>422</v>
+      </c>
+      <c r="T31">
+        <v>60.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>387</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="L32" t="s">
+        <v>388</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="O32" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>423</v>
+      </c>
+      <c r="S32" t="s">
+        <v>426</v>
+      </c>
+      <c r="T32">
+        <v>61.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>390</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="L33" t="s">
+        <v>391</v>
+      </c>
+      <c r="N33" t="s">
+        <v>392</v>
+      </c>
+      <c r="O33" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>424</v>
+      </c>
+      <c r="S33" t="s">
+        <v>424</v>
+      </c>
+      <c r="T33">
+        <v>56.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>394</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="L34" t="s">
+        <v>395</v>
+      </c>
+      <c r="N34" t="s">
+        <v>396</v>
+      </c>
+      <c r="O34" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>425</v>
+      </c>
+      <c r="S34" t="s">
+        <v>425</v>
+      </c>
+      <c r="T34">
+        <v>65.099999999999994</v>
       </c>
     </row>
   </sheetData>
